--- a/data/LINDAO ZUÑIGA BRYAN JOSE.xlsx
+++ b/data/LINDAO ZUÑIGA BRYAN JOSE.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VENTA MENSUAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CUMPLIMIENTO MENSUAL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,14 +65,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3128,62 +3129,62 @@
       </c>
     </row>
     <row r="56">
-      <c r="C56" s="4" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="D56" s="4" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="G56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="H56" s="4" t="inlineStr">
+      <c r="H56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="I56" s="4" t="inlineStr">
+      <c r="I56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="J56" s="4" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="K56" s="4" t="inlineStr">
+      <c r="K56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="L56" s="4" t="inlineStr">
+      <c r="L56" s="3" t="inlineStr">
         <is>
           <t>3 de 54</t>
         </is>
       </c>
-      <c r="M56" s="4" t="inlineStr">
+      <c r="M56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
       </c>
-      <c r="N56" s="4" t="inlineStr">
+      <c r="N56" s="3" t="inlineStr">
         <is>
           <t>0 de 54</t>
         </is>
@@ -3278,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3305,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3332,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3386,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3467,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3494,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3548,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3656,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3737,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3926,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4007,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4034,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4061,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4196,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4223,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4250,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4358,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4385,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4493,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4520,7 +4521,7 @@
         <v>84.90000000000001</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4547,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4655,7 +4656,7 @@
         <v>25</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4682,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4709,24 +4710,510 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="C56" s="6" t="n">
+      <c r="C56" s="4" t="n">
         <v>48005.12</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="4" t="n">
         <v>31281.76</v>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="4" t="n">
         <v>50358.9</v>
       </c>
-      <c r="F56" s="6" t="n">
+      <c r="F56" s="4" t="n">
         <v>242.96</v>
       </c>
-      <c r="G56" s="6" t="n">
-        <v>50500</v>
+      <c r="G56" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="26" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASESOR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POR CUMPLIR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CUMPLIMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240X120 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>672.340305337043</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>672.340305337043</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240X80 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>4992.1832</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>4992.1832</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FREGADEROS DE COCINA</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>142.502095025027</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>142.502095025027</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GRIFERIAS</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INODOROS</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAVABOS</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>750</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>650.25</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>640.67</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.01473279507881584</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PANELES DECORATIVOS</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>483</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PIEDRA SINTERIZADA</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1505.12</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1505.12</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>38417.17</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>233.38</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>38183.79</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.006074887869148092</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PUERTAS DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>342</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LINDAO ZUÑIGA BRYAN JOSE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4130</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>4130</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>55409.70560036207</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>242.96</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>55166.74560036208</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.004384791389297914</v>
       </c>
     </row>
   </sheetData>
